--- a/database/industries/shoyande/gharn/cost/yearly.xlsx
+++ b/database/industries/shoyande/gharn/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CC85F-11B3-4671-8A5A-80F2C820AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +378,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -389,7 +390,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -436,6 +437,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -471,6 +489,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -622,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/shoyande/gharn/cost/yearly.xlsx
+++ b/database/industries/shoyande/gharn/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277CC85F-11B3-4671-8A5A-80F2C820AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B3A5F4-6557-493F-B9E9-31A9B0EF354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="61">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>مواد اولیه خارجی</t>
   </si>
   <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
     <t>مواد اولیه</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
   </si>
   <si>
     <t>سایر</t>
@@ -662,12 +662,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -677,7 +677,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -711,7 +711,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -745,7 +745,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -777,95 +777,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>2015449</v>
+        <v>3509532</v>
       </c>
       <c r="F10" s="9">
-        <v>3509532</v>
+        <v>5981534</v>
       </c>
       <c r="G10" s="9">
-        <v>5981534</v>
+        <v>11741062</v>
       </c>
       <c r="H10" s="9">
-        <v>11741062</v>
+        <v>15779540</v>
       </c>
       <c r="I10" s="9">
-        <v>15779540</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23861865</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>207208</v>
+        <v>180651</v>
       </c>
       <c r="F11" s="11">
-        <v>180651</v>
+        <v>248646</v>
       </c>
       <c r="G11" s="11">
-        <v>248646</v>
+        <v>427147</v>
       </c>
       <c r="H11" s="11">
-        <v>427147</v>
+        <v>589174</v>
       </c>
       <c r="I11" s="11">
-        <v>589174</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>852877</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>151759</v>
+        <v>228810</v>
       </c>
       <c r="F12" s="9">
-        <v>228810</v>
+        <v>449391</v>
       </c>
       <c r="G12" s="9">
-        <v>449391</v>
+        <v>728450</v>
       </c>
       <c r="H12" s="9">
-        <v>728450</v>
+        <v>1450801</v>
       </c>
       <c r="I12" s="9">
-        <v>1450801</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1891513</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2374416</v>
+        <v>3918993</v>
       </c>
       <c r="F13" s="13">
-        <v>3918993</v>
+        <v>6679571</v>
       </c>
       <c r="G13" s="13">
-        <v>6679571</v>
+        <v>12896659</v>
       </c>
       <c r="H13" s="13">
-        <v>12896659</v>
+        <v>17819515</v>
       </c>
       <c r="I13" s="13">
-        <v>17819515</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26606255</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -887,51 +887,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2374416</v>
+        <v>3918993</v>
       </c>
       <c r="F15" s="13">
-        <v>3918993</v>
+        <v>6679571</v>
       </c>
       <c r="G15" s="13">
-        <v>6679571</v>
+        <v>12896659</v>
       </c>
       <c r="H15" s="13">
-        <v>12896659</v>
+        <v>17819515</v>
       </c>
       <c r="I15" s="13">
-        <v>17819515</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26606255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G16" s="9">
-        <v>-1203</v>
+        <v>-2026</v>
       </c>
       <c r="H16" s="9">
-        <v>-2026</v>
+        <v>2158</v>
       </c>
       <c r="I16" s="9">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -953,95 +953,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2374545</v>
+        <v>3918993</v>
       </c>
       <c r="F18" s="15">
-        <v>3918993</v>
+        <v>6678368</v>
       </c>
       <c r="G18" s="15">
-        <v>6678368</v>
+        <v>12894633</v>
       </c>
       <c r="H18" s="15">
-        <v>12894633</v>
+        <v>17821673</v>
       </c>
       <c r="I18" s="15">
-        <v>17821673</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26607239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>62463</v>
+        <v>109648</v>
       </c>
       <c r="F19" s="11">
-        <v>109648</v>
+        <v>80300</v>
       </c>
       <c r="G19" s="11">
-        <v>80300</v>
+        <v>246785</v>
       </c>
       <c r="H19" s="11">
-        <v>246785</v>
+        <v>444328</v>
       </c>
       <c r="I19" s="11">
-        <v>444328</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>509172</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-109648</v>
+        <v>-80300</v>
       </c>
       <c r="F20" s="9">
-        <v>-80300</v>
+        <v>-246785</v>
       </c>
       <c r="G20" s="9">
-        <v>-246785</v>
+        <v>-444328</v>
       </c>
       <c r="H20" s="9">
-        <v>-444328</v>
+        <v>-509172</v>
       </c>
       <c r="I20" s="9">
-        <v>-509172</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-799101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2327360</v>
+        <v>3948341</v>
       </c>
       <c r="F21" s="13">
-        <v>3948341</v>
+        <v>6511883</v>
       </c>
       <c r="G21" s="13">
-        <v>6511883</v>
+        <v>12697090</v>
       </c>
       <c r="H21" s="13">
-        <v>12697090</v>
+        <v>17756829</v>
       </c>
       <c r="I21" s="13">
-        <v>17756829</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26317310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1063,29 +1063,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2327360</v>
+        <v>3948341</v>
       </c>
       <c r="F23" s="13">
-        <v>3948341</v>
+        <v>6511883</v>
       </c>
       <c r="G23" s="13">
-        <v>6511883</v>
+        <v>12697090</v>
       </c>
       <c r="H23" s="13">
-        <v>12697090</v>
+        <v>17756829</v>
       </c>
       <c r="I23" s="13">
-        <v>17756829</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26317310</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1147,7 +1147,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1164,14 +1164,14 @@
       <c r="G29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>26</v>
+      <c r="H29" s="9">
+        <v>134885238</v>
       </c>
       <c r="I29" s="9">
-        <v>134885238</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>89444963</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1179,23 +1179,23 @@
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>24723692</v>
       </c>
       <c r="F30" s="11">
-        <v>24723692</v>
+        <v>15981221</v>
       </c>
       <c r="G30" s="11">
-        <v>15981221</v>
+        <v>16809756</v>
       </c>
       <c r="H30" s="11">
-        <v>16809756</v>
+        <v>14357354</v>
       </c>
       <c r="I30" s="11">
-        <v>14357354</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16193238</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1203,23 +1203,23 @@
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>51242612</v>
       </c>
       <c r="F31" s="9">
-        <v>51242612</v>
+        <v>64107228</v>
       </c>
       <c r="G31" s="9">
-        <v>64107228</v>
-      </c>
-      <c r="H31" s="9">
         <v>82175263</v>
       </c>
+      <c r="H31" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I31" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1227,52 +1227,52 @@
         <v>30</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>3821</v>
       </c>
       <c r="F32" s="11">
-        <v>3821</v>
+        <v>4399986</v>
       </c>
       <c r="G32" s="11">
-        <v>4399986</v>
-      </c>
-      <c r="H32" s="11">
         <v>5800</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>26</v>
+      <c r="E33" s="9">
+        <v>3067</v>
       </c>
       <c r="F33" s="9">
-        <v>3067</v>
+        <v>2589074</v>
       </c>
       <c r="G33" s="9">
-        <v>2589074</v>
+        <v>2940</v>
       </c>
       <c r="H33" s="9">
-        <v>2940</v>
+        <v>3498326</v>
       </c>
       <c r="I33" s="9">
-        <v>3498326</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1544060</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
@@ -1284,14 +1284,14 @@
       <c r="G34" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>26</v>
+      <c r="H34" s="11">
+        <v>3803775</v>
       </c>
       <c r="I34" s="11">
-        <v>3803775</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4297175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
@@ -1299,14 +1299,14 @@
         <v>30</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>26</v>
+      <c r="E35" s="9">
+        <v>0</v>
       </c>
       <c r="F35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
+      <c r="G35" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>26</v>
@@ -1315,29 +1315,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>0</v>
+        <v>75973192</v>
       </c>
       <c r="F36" s="13">
-        <v>75973192</v>
+        <v>87077509</v>
       </c>
       <c r="G36" s="13">
-        <v>87077509</v>
+        <v>98993759</v>
       </c>
       <c r="H36" s="13">
-        <v>98993759</v>
+        <v>156544693</v>
       </c>
       <c r="I36" s="13">
-        <v>156544693</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>111479436</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1357,7 +1357,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1416,14 +1416,14 @@
       <c r="G42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="9" t="s">
-        <v>26</v>
+      <c r="H42" s="9">
+        <v>328185208</v>
       </c>
       <c r="I42" s="9">
-        <v>328185208</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>475474521</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1431,23 +1431,23 @@
         <v>25</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="E43" s="11" t="s">
-        <v>26</v>
+      <c r="E43" s="11">
+        <v>35668337</v>
       </c>
       <c r="F43" s="11">
-        <v>35668337</v>
+        <v>39056628</v>
       </c>
       <c r="G43" s="11">
-        <v>39056628</v>
+        <v>27814878</v>
       </c>
       <c r="H43" s="11">
-        <v>27814878</v>
+        <v>22184312</v>
       </c>
       <c r="I43" s="11">
-        <v>22184312</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9515723</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -1455,23 +1455,23 @@
         <v>25</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>322030149</v>
       </c>
       <c r="F44" s="9">
-        <v>322030149</v>
+        <v>383980297</v>
       </c>
       <c r="G44" s="9">
-        <v>383980297</v>
-      </c>
-      <c r="H44" s="9">
         <v>476362179</v>
       </c>
+      <c r="H44" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I44" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
@@ -1479,52 +1479,52 @@
         <v>30</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>26</v>
+      <c r="E45" s="11">
+        <v>31830</v>
       </c>
       <c r="F45" s="11">
-        <v>31830</v>
+        <v>37995746</v>
       </c>
       <c r="G45" s="11">
-        <v>37995746</v>
-      </c>
-      <c r="H45" s="11">
         <v>42753</v>
       </c>
+      <c r="H45" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I45" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>26</v>
+      <c r="E46" s="9">
+        <v>4101</v>
       </c>
       <c r="F46" s="9">
-        <v>4101</v>
+        <v>5636815</v>
       </c>
       <c r="G46" s="9">
-        <v>5636815</v>
+        <v>4912</v>
       </c>
       <c r="H46" s="9">
-        <v>4912</v>
+        <v>1211887</v>
       </c>
       <c r="I46" s="9">
-        <v>1211887</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3569841</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
@@ -1536,14 +1536,14 @@
       <c r="G47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>26</v>
+      <c r="H47" s="11">
+        <v>42471387</v>
       </c>
       <c r="I47" s="11">
-        <v>42471387</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57742539</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
@@ -1551,15 +1551,15 @@
         <v>30</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>26</v>
+      <c r="E48" s="9">
+        <v>963</v>
       </c>
       <c r="F48" s="9">
-        <v>963</v>
-      </c>
-      <c r="G48" s="9">
         <v>1</v>
       </c>
+      <c r="G48" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H48" s="9" t="s">
         <v>26</v>
       </c>
@@ -1567,29 +1567,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>0</v>
+        <v>357735380</v>
       </c>
       <c r="F49" s="13">
-        <v>357735380</v>
+        <v>466669487</v>
       </c>
       <c r="G49" s="13">
-        <v>466669487</v>
+        <v>504224722</v>
       </c>
       <c r="H49" s="13">
-        <v>504224722</v>
+        <v>394052794</v>
       </c>
       <c r="I49" s="13">
-        <v>394052794</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>546302624</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1599,7 +1599,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1609,7 +1609,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1651,7 +1651,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1668,14 +1668,14 @@
       <c r="G55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>26</v>
+      <c r="H55" s="9">
+        <v>373625483</v>
       </c>
       <c r="I55" s="9">
-        <v>373625483</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>467020956</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1683,23 +1683,23 @@
         <v>25</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>26</v>
+      <c r="E56" s="11">
+        <v>44410809</v>
       </c>
       <c r="F56" s="11">
-        <v>44410809</v>
+        <v>38228092</v>
       </c>
       <c r="G56" s="11">
-        <v>38228092</v>
+        <v>30267281</v>
       </c>
       <c r="H56" s="11">
-        <v>30267281</v>
+        <v>20348428</v>
       </c>
       <c r="I56" s="11">
-        <v>20348428</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15034380</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>28</v>
       </c>
@@ -1707,23 +1707,23 @@
         <v>25</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>309165533</v>
       </c>
       <c r="F57" s="9">
-        <v>309165533</v>
+        <v>365912262</v>
       </c>
       <c r="G57" s="9">
-        <v>365912262</v>
-      </c>
-      <c r="H57" s="9">
         <v>423652204</v>
       </c>
+      <c r="H57" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I57" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
@@ -1731,52 +1731,52 @@
         <v>30</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>26</v>
+      <c r="E58" s="11">
+        <v>31251</v>
       </c>
       <c r="F58" s="11">
-        <v>31251</v>
+        <v>36595278</v>
       </c>
       <c r="G58" s="11">
-        <v>36595278</v>
-      </c>
-      <c r="H58" s="11">
         <v>44750</v>
       </c>
+      <c r="H58" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I58" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>4579</v>
       </c>
       <c r="F59" s="9">
-        <v>4579</v>
+        <v>5285680</v>
       </c>
       <c r="G59" s="9">
-        <v>5285680</v>
+        <v>4354</v>
       </c>
       <c r="H59" s="9">
-        <v>4354</v>
+        <v>3166153</v>
       </c>
       <c r="I59" s="9">
-        <v>3166153</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3556146</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
@@ -1788,14 +1788,14 @@
       <c r="G60" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>26</v>
+      <c r="H60" s="11">
+        <v>41977987</v>
       </c>
       <c r="I60" s="11">
-        <v>41977987</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56329176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
@@ -1803,15 +1803,15 @@
         <v>30</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>963</v>
       </c>
       <c r="F61" s="9">
-        <v>963</v>
-      </c>
-      <c r="G61" s="9">
         <v>1</v>
       </c>
+      <c r="G61" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H61" s="9" t="s">
         <v>26</v>
       </c>
@@ -1819,29 +1819,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>0</v>
+        <v>353613135</v>
       </c>
       <c r="F62" s="13">
-        <v>353613135</v>
+        <v>446021313</v>
       </c>
       <c r="G62" s="13">
-        <v>446021313</v>
+        <v>453968589</v>
       </c>
       <c r="H62" s="13">
-        <v>453968589</v>
+        <v>439118051</v>
       </c>
       <c r="I62" s="13">
-        <v>439118051</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>541940658</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1851,7 +1851,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1861,7 +1861,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>37</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1903,7 +1903,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1920,14 +1920,14 @@
       <c r="G68" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>26</v>
+      <c r="H68" s="9">
+        <v>89444963</v>
       </c>
       <c r="I68" s="9">
-        <v>89444963</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97898528</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1935,23 +1935,23 @@
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>26</v>
+      <c r="E69" s="11">
+        <v>15981220</v>
       </c>
       <c r="F69" s="11">
-        <v>15981220</v>
+        <v>16809757</v>
       </c>
       <c r="G69" s="11">
-        <v>16809757</v>
+        <v>14357353</v>
       </c>
       <c r="H69" s="11">
-        <v>14357353</v>
+        <v>16193238</v>
       </c>
       <c r="I69" s="11">
-        <v>16193238</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10674581</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>28</v>
       </c>
@@ -1959,23 +1959,23 @@
         <v>25</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>26</v>
+      <c r="E70" s="9">
+        <v>64107228</v>
       </c>
       <c r="F70" s="9">
-        <v>64107228</v>
+        <v>82175263</v>
       </c>
       <c r="G70" s="9">
-        <v>82175263</v>
-      </c>
-      <c r="H70" s="9">
         <v>134885238</v>
       </c>
+      <c r="H70" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I70" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
@@ -1983,52 +1983,52 @@
         <v>30</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>26</v>
+      <c r="E71" s="11">
+        <v>4400</v>
       </c>
       <c r="F71" s="11">
-        <v>4400</v>
+        <v>5800454</v>
       </c>
       <c r="G71" s="11">
-        <v>5800454</v>
-      </c>
-      <c r="H71" s="11">
         <v>3803</v>
       </c>
+      <c r="H71" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I71" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>26</v>
+      <c r="E72" s="9">
+        <v>2589</v>
       </c>
       <c r="F72" s="9">
-        <v>2589</v>
+        <v>2940209</v>
       </c>
       <c r="G72" s="9">
-        <v>2940209</v>
+        <v>3498</v>
       </c>
       <c r="H72" s="9">
-        <v>3498</v>
+        <v>1544060</v>
       </c>
       <c r="I72" s="9">
-        <v>1544060</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1557755</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
@@ -2040,14 +2040,14 @@
       <c r="G73" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>26</v>
+      <c r="H73" s="11">
+        <v>4297175</v>
       </c>
       <c r="I73" s="11">
-        <v>4297175</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5710538</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>34</v>
       </c>
@@ -2055,14 +2055,14 @@
         <v>30</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>0</v>
       </c>
       <c r="F74" s="9">
         <v>0</v>
       </c>
-      <c r="G74" s="9">
-        <v>0</v>
+      <c r="G74" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>26</v>
@@ -2071,29 +2071,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>0</v>
+        <v>80095437</v>
       </c>
       <c r="F75" s="13">
-        <v>80095437</v>
+        <v>107725683</v>
       </c>
       <c r="G75" s="13">
-        <v>107725683</v>
+        <v>149249892</v>
       </c>
       <c r="H75" s="13">
-        <v>149249892</v>
+        <v>111479436</v>
       </c>
       <c r="I75" s="13">
-        <v>111479436</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>115841402</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2103,7 +2103,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2113,7 +2113,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>38</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2155,7 +2155,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2172,14 +2172,14 @@
       <c r="G81" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="9" t="s">
-        <v>26</v>
+      <c r="H81" s="9">
+        <v>744961</v>
       </c>
       <c r="I81" s="9">
-        <v>744961</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>675721</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2187,23 +2187,23 @@
         <v>39</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
+      <c r="E82" s="11">
+        <v>43041</v>
       </c>
       <c r="F82" s="11">
-        <v>43041</v>
+        <v>53202</v>
       </c>
       <c r="G82" s="11">
-        <v>53202</v>
+        <v>98651</v>
       </c>
       <c r="H82" s="11">
-        <v>98651</v>
+        <v>341262</v>
       </c>
       <c r="I82" s="11">
-        <v>341262</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>373617</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>28</v>
       </c>
@@ -2211,23 +2211,23 @@
         <v>39</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>26</v>
+      <c r="E83" s="9">
+        <v>53149</v>
       </c>
       <c r="F83" s="9">
-        <v>53149</v>
+        <v>154836</v>
       </c>
       <c r="G83" s="9">
-        <v>154836</v>
-      </c>
-      <c r="H83" s="9">
         <v>290451</v>
       </c>
+      <c r="H83" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I83" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>29</v>
       </c>
@@ -2235,23 +2235,23 @@
         <v>39</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
-        <v>26</v>
+      <c r="E84" s="11">
+        <v>108820</v>
       </c>
       <c r="F84" s="11">
-        <v>108820</v>
+        <v>270404</v>
       </c>
       <c r="G84" s="11">
-        <v>270404</v>
-      </c>
-      <c r="H84" s="11">
         <v>382426</v>
       </c>
+      <c r="H84" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I84" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -2259,25 +2259,25 @@
         <v>39</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>159482</v>
       </c>
       <c r="F85" s="9">
-        <v>159482</v>
+        <v>482128</v>
       </c>
       <c r="G85" s="9">
-        <v>482128</v>
+        <v>951229</v>
       </c>
       <c r="H85" s="9">
-        <v>951229</v>
+        <v>1950672</v>
       </c>
       <c r="I85" s="9">
-        <v>1950672</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1650374</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>39</v>
@@ -2292,14 +2292,14 @@
       <c r="G86" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>26</v>
+      <c r="H86" s="11">
+        <v>650646</v>
       </c>
       <c r="I86" s="11">
-        <v>650646</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>917125</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>34</v>
       </c>
@@ -2307,14 +2307,14 @@
         <v>39</v>
       </c>
       <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>26</v>
+      <c r="E87" s="9">
+        <v>0</v>
       </c>
       <c r="F87" s="9">
         <v>0</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
+      <c r="G87" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>26</v>
@@ -2323,29 +2323,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>0</v>
+        <v>364492</v>
       </c>
       <c r="F88" s="13">
-        <v>364492</v>
+        <v>960570</v>
       </c>
       <c r="G88" s="13">
-        <v>960570</v>
+        <v>1722757</v>
       </c>
       <c r="H88" s="13">
-        <v>1722757</v>
+        <v>3687541</v>
       </c>
       <c r="I88" s="13">
-        <v>3687541</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3616837</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2355,7 +2355,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2365,7 +2365,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2375,7 +2375,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>40</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2407,7 +2407,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2424,14 +2424,14 @@
       <c r="G94" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>26</v>
+      <c r="H94" s="9">
+        <v>5351268</v>
       </c>
       <c r="I94" s="9">
-        <v>5351268</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8809588</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2439,23 +2439,23 @@
         <v>39</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>26</v>
+      <c r="E95" s="11">
+        <v>137988</v>
       </c>
       <c r="F95" s="11">
-        <v>137988</v>
+        <v>226728</v>
       </c>
       <c r="G95" s="11">
-        <v>226728</v>
+        <v>628497</v>
       </c>
       <c r="H95" s="11">
-        <v>628497</v>
+        <v>534761</v>
       </c>
       <c r="I95" s="11">
-        <v>534761</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>301895</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2463,23 +2463,23 @@
         <v>39</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>26</v>
+      <c r="E96" s="9">
+        <v>1438400</v>
       </c>
       <c r="F96" s="9">
-        <v>1438400</v>
+        <v>2201413</v>
       </c>
       <c r="G96" s="9">
-        <v>2201413</v>
-      </c>
-      <c r="H96" s="9">
         <v>4474466</v>
       </c>
+      <c r="H96" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I96" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2487,23 +2487,23 @@
         <v>39</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>26</v>
+      <c r="E97" s="11">
+        <v>1587978</v>
       </c>
       <c r="F97" s="11">
-        <v>1587978</v>
+        <v>2618806</v>
       </c>
       <c r="G97" s="11">
-        <v>2618806</v>
-      </c>
-      <c r="H97" s="11">
         <v>5361782</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -2511,25 +2511,25 @@
         <v>39</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>26</v>
+      <c r="E98" s="9">
+        <v>909323</v>
       </c>
       <c r="F98" s="9">
-        <v>909323</v>
+        <v>1696445</v>
       </c>
       <c r="G98" s="9">
-        <v>1696445</v>
+        <v>3197993</v>
       </c>
       <c r="H98" s="9">
-        <v>3197993</v>
+        <v>2146799</v>
       </c>
       <c r="I98" s="9">
-        <v>2146799</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4426100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" s="11" t="s">
         <v>39</v>
@@ -2544,14 +2544,14 @@
       <c r="G99" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>26</v>
+      <c r="H99" s="11">
+        <v>7676009</v>
       </c>
       <c r="I99" s="11">
-        <v>7676009</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11209124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>34</v>
       </c>
@@ -2559,15 +2559,15 @@
         <v>39</v>
       </c>
       <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>26</v>
+      <c r="E100" s="9">
+        <v>31921</v>
       </c>
       <c r="F100" s="9">
-        <v>31921</v>
-      </c>
-      <c r="G100" s="9">
         <v>330</v>
       </c>
+      <c r="G100" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H100" s="9" t="s">
         <v>26</v>
       </c>
@@ -2575,29 +2575,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>0</v>
+        <v>4105610</v>
       </c>
       <c r="F101" s="13">
-        <v>4105610</v>
+        <v>6743722</v>
       </c>
       <c r="G101" s="13">
-        <v>6743722</v>
+        <v>13662738</v>
       </c>
       <c r="H101" s="13">
-        <v>13662738</v>
+        <v>15708837</v>
       </c>
       <c r="I101" s="13">
-        <v>15708837</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24746707</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2607,7 +2607,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2617,7 +2617,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2627,7 +2627,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2659,7 +2659,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2676,14 +2676,14 @@
       <c r="G107" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H107" s="9" t="s">
-        <v>26</v>
+      <c r="H107" s="9">
+        <v>5420507</v>
       </c>
       <c r="I107" s="9">
-        <v>5420507</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8448716</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2691,23 +2691,23 @@
         <v>39</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>26</v>
+      <c r="E108" s="11">
+        <v>127826</v>
       </c>
       <c r="F108" s="11">
-        <v>127826</v>
+        <v>181277</v>
       </c>
       <c r="G108" s="11">
-        <v>181277</v>
+        <v>384451</v>
       </c>
       <c r="H108" s="11">
-        <v>384451</v>
+        <v>502406</v>
       </c>
       <c r="I108" s="11">
-        <v>502406</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>409376</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>28</v>
       </c>
@@ -2715,23 +2715,23 @@
         <v>39</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>1336715</v>
       </c>
       <c r="F109" s="9">
-        <v>1336715</v>
+        <v>2065798</v>
       </c>
       <c r="G109" s="9">
-        <v>2065798</v>
-      </c>
-      <c r="H109" s="9">
         <v>4005930</v>
       </c>
+      <c r="H109" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I109" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>29</v>
       </c>
@@ -2739,23 +2739,23 @@
         <v>39</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
+      <c r="E110" s="11">
+        <v>1426394</v>
       </c>
       <c r="F110" s="11">
-        <v>1426394</v>
+        <v>2506785</v>
       </c>
       <c r="G110" s="11">
-        <v>2506785</v>
-      </c>
-      <c r="H110" s="11">
         <v>5091723</v>
       </c>
+      <c r="H110" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I110" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>31</v>
       </c>
@@ -2763,25 +2763,25 @@
         <v>39</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
+      <c r="E111" s="9">
+        <v>586676</v>
       </c>
       <c r="F111" s="9">
-        <v>586676</v>
+        <v>1227344</v>
       </c>
       <c r="G111" s="9">
-        <v>1227344</v>
+        <v>2206405</v>
       </c>
       <c r="H111" s="9">
-        <v>2206405</v>
+        <v>2447097</v>
       </c>
       <c r="I111" s="9">
-        <v>2447097</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3885053</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>39</v>
@@ -2796,14 +2796,14 @@
       <c r="G112" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H112" s="11" t="s">
-        <v>26</v>
+      <c r="H112" s="11">
+        <v>7409530</v>
       </c>
       <c r="I112" s="11">
-        <v>7409530</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11118720</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>34</v>
       </c>
@@ -2811,15 +2811,15 @@
         <v>39</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>26</v>
+      <c r="E113" s="9">
+        <v>31921</v>
       </c>
       <c r="F113" s="9">
-        <v>31921</v>
-      </c>
-      <c r="G113" s="9">
         <v>330</v>
       </c>
+      <c r="G113" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H113" s="9" t="s">
         <v>26</v>
       </c>
@@ -2827,29 +2827,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>0</v>
+        <v>3509532</v>
       </c>
       <c r="F114" s="13">
-        <v>3509532</v>
+        <v>5981534</v>
       </c>
       <c r="G114" s="13">
-        <v>5981534</v>
+        <v>11688509</v>
       </c>
       <c r="H114" s="13">
-        <v>11688509</v>
+        <v>15779540</v>
       </c>
       <c r="I114" s="13">
-        <v>15779540</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23861865</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2859,7 +2859,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2869,7 +2869,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2879,7 +2879,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>42</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2911,7 +2911,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2928,14 +2928,14 @@
       <c r="G120" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>26</v>
+      <c r="H120" s="9">
+        <v>675722</v>
       </c>
       <c r="I120" s="9">
-        <v>675722</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1036593</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2943,23 +2943,23 @@
         <v>39</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>26</v>
+      <c r="E121" s="11">
+        <v>53203</v>
       </c>
       <c r="F121" s="11">
-        <v>53203</v>
+        <v>98653</v>
       </c>
       <c r="G121" s="11">
-        <v>98653</v>
+        <v>342697</v>
       </c>
       <c r="H121" s="11">
-        <v>342697</v>
+        <v>373617</v>
       </c>
       <c r="I121" s="11">
-        <v>373617</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>266136</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
@@ -2967,23 +2967,23 @@
         <v>39</v>
       </c>
       <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>26</v>
+      <c r="E122" s="9">
+        <v>154834</v>
       </c>
       <c r="F122" s="9">
-        <v>154834</v>
+        <v>290451</v>
       </c>
       <c r="G122" s="9">
-        <v>290451</v>
-      </c>
-      <c r="H122" s="9">
         <v>758987</v>
       </c>
+      <c r="H122" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I122" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>29</v>
       </c>
@@ -2991,23 +2991,23 @@
         <v>39</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>26</v>
+      <c r="E123" s="11">
+        <v>270404</v>
       </c>
       <c r="F123" s="11">
-        <v>270404</v>
+        <v>382425</v>
       </c>
       <c r="G123" s="11">
-        <v>382425</v>
-      </c>
-      <c r="H123" s="11">
         <v>652485</v>
       </c>
+      <c r="H123" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I123" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -3015,25 +3015,25 @@
         <v>39</v>
       </c>
       <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
-        <v>26</v>
+      <c r="E124" s="9">
+        <v>482129</v>
       </c>
       <c r="F124" s="9">
-        <v>482129</v>
+        <v>951229</v>
       </c>
       <c r="G124" s="9">
-        <v>951229</v>
+        <v>1942817</v>
       </c>
       <c r="H124" s="9">
-        <v>1942817</v>
+        <v>1650374</v>
       </c>
       <c r="I124" s="9">
-        <v>1650374</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2191421</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>39</v>
@@ -3048,14 +3048,14 @@
       <c r="G125" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="11" t="s">
-        <v>26</v>
+      <c r="H125" s="11">
+        <v>917125</v>
       </c>
       <c r="I125" s="11">
-        <v>917125</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1007529</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>34</v>
       </c>
@@ -3063,14 +3063,14 @@
         <v>39</v>
       </c>
       <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>26</v>
+      <c r="E126" s="9">
+        <v>0</v>
       </c>
       <c r="F126" s="9">
         <v>0</v>
       </c>
-      <c r="G126" s="9">
-        <v>0</v>
+      <c r="G126" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H126" s="9" t="s">
         <v>26</v>
@@ -3079,29 +3079,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>0</v>
+        <v>960570</v>
       </c>
       <c r="F127" s="13">
-        <v>960570</v>
+        <v>1722758</v>
       </c>
       <c r="G127" s="13">
-        <v>1722758</v>
+        <v>3696986</v>
       </c>
       <c r="H127" s="13">
-        <v>3696986</v>
+        <v>3616838</v>
       </c>
       <c r="I127" s="13">
-        <v>3616838</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4501679</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3111,7 +3111,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3121,7 +3121,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3131,7 +3131,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>43</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3163,7 +3163,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3180,14 +3180,14 @@
       <c r="G133" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>26</v>
+      <c r="H133" s="9">
+        <v>5523</v>
       </c>
       <c r="I133" s="9">
-        <v>5523</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3195,23 +3195,23 @@
         <v>44</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11" t="s">
-        <v>26</v>
+      <c r="E134" s="11">
+        <v>1741</v>
       </c>
       <c r="F134" s="11">
-        <v>1741</v>
+        <v>3329</v>
       </c>
       <c r="G134" s="11">
-        <v>3329</v>
+        <v>5869</v>
       </c>
       <c r="H134" s="11">
-        <v>5869</v>
+        <v>23769</v>
       </c>
       <c r="I134" s="11">
-        <v>23769</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23072</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -3219,23 +3219,23 @@
         <v>44</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9" t="s">
-        <v>26</v>
+      <c r="E135" s="9">
+        <v>1037</v>
       </c>
       <c r="F135" s="9">
-        <v>1037</v>
+        <v>2415</v>
       </c>
       <c r="G135" s="9">
-        <v>2415</v>
-      </c>
-      <c r="H135" s="9">
         <v>3535</v>
       </c>
+      <c r="H135" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I135" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>29</v>
       </c>
@@ -3243,49 +3243,49 @@
         <v>45</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>26</v>
+      <c r="E136" s="11">
+        <v>28479456</v>
       </c>
       <c r="F136" s="11">
-        <v>28479456</v>
+        <v>61456</v>
       </c>
       <c r="G136" s="11">
-        <v>61456</v>
-      </c>
-      <c r="H136" s="11">
         <v>65935517</v>
       </c>
+      <c r="H136" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I136" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9" t="s">
-        <v>26</v>
+      <c r="E137" s="9">
+        <v>51999348</v>
       </c>
       <c r="F137" s="9">
-        <v>51999348</v>
+        <v>186216</v>
       </c>
       <c r="G137" s="9">
-        <v>186216</v>
+        <v>323547279</v>
       </c>
       <c r="H137" s="9">
-        <v>323547279</v>
+        <v>557602</v>
       </c>
       <c r="I137" s="9">
-        <v>557602</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1068854</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C138" s="11" t="s">
         <v>46</v>
@@ -3300,14 +3300,14 @@
       <c r="G138" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H138" s="11" t="s">
-        <v>26</v>
+      <c r="H138" s="11">
+        <v>171053</v>
       </c>
       <c r="I138" s="11">
-        <v>171053</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>213425</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3317,7 +3317,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3327,7 +3327,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3337,7 +3337,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
         <v>47</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3369,7 +3369,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>24</v>
       </c>
@@ -3386,14 +3386,14 @@
       <c r="G144" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H144" s="9" t="s">
-        <v>26</v>
+      <c r="H144" s="9">
+        <v>16306</v>
       </c>
       <c r="I144" s="9">
-        <v>16306</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18528</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>27</v>
       </c>
@@ -3401,23 +3401,23 @@
         <v>44</v>
       </c>
       <c r="D145" s="11"/>
-      <c r="E145" s="11" t="s">
-        <v>26</v>
+      <c r="E145" s="11">
+        <v>3869</v>
       </c>
       <c r="F145" s="11">
-        <v>3869</v>
+        <v>5805</v>
       </c>
       <c r="G145" s="11">
-        <v>5805</v>
+        <v>22596</v>
       </c>
       <c r="H145" s="11">
-        <v>22596</v>
+        <v>24105</v>
       </c>
       <c r="I145" s="11">
-        <v>24105</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>28</v>
       </c>
@@ -3425,23 +3425,23 @@
         <v>44</v>
       </c>
       <c r="D146" s="9"/>
-      <c r="E146" s="9" t="s">
-        <v>26</v>
+      <c r="E146" s="9">
+        <v>4467</v>
       </c>
       <c r="F146" s="9">
-        <v>4467</v>
+        <v>5733</v>
       </c>
       <c r="G146" s="9">
-        <v>5733</v>
-      </c>
-      <c r="H146" s="9">
         <v>9393</v>
       </c>
+      <c r="H146" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I146" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>29</v>
       </c>
@@ -3449,49 +3449,49 @@
         <v>45</v>
       </c>
       <c r="D147" s="11"/>
-      <c r="E147" s="11" t="s">
-        <v>26</v>
+      <c r="E147" s="11">
+        <v>49889350</v>
       </c>
       <c r="F147" s="11">
-        <v>49889350</v>
+        <v>68924</v>
       </c>
       <c r="G147" s="11">
-        <v>68924</v>
-      </c>
-      <c r="H147" s="11">
         <v>125413000</v>
       </c>
+      <c r="H147" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I147" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D148" s="9"/>
-      <c r="E148" s="9" t="s">
-        <v>26</v>
+      <c r="E148" s="9">
+        <v>221732017</v>
       </c>
       <c r="F148" s="9">
-        <v>221732017</v>
+        <v>300958</v>
       </c>
       <c r="G148" s="9">
-        <v>300958</v>
+        <v>651057207</v>
       </c>
       <c r="H148" s="9">
-        <v>651057207</v>
+        <v>1771451</v>
       </c>
       <c r="I148" s="9">
-        <v>1771451</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1239859</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C149" s="11" t="s">
         <v>46</v>
@@ -3506,14 +3506,14 @@
       <c r="G149" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H149" s="11" t="s">
-        <v>26</v>
+      <c r="H149" s="11">
+        <v>180734</v>
       </c>
       <c r="I149" s="11">
-        <v>180734</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>194122</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>34</v>
       </c>
@@ -3521,15 +3521,15 @@
         <v>45</v>
       </c>
       <c r="D150" s="9"/>
-      <c r="E150" s="9" t="s">
-        <v>26</v>
+      <c r="E150" s="9">
+        <v>33147456</v>
       </c>
       <c r="F150" s="9">
-        <v>33147456</v>
-      </c>
-      <c r="G150" s="9">
         <v>330000000</v>
       </c>
+      <c r="G150" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H150" s="9" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3547,7 +3547,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3557,7 +3557,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3567,7 +3567,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B154" s="7" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>24</v>
       </c>
@@ -3616,14 +3616,14 @@
       <c r="G156" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H156" s="9" t="s">
-        <v>26</v>
+      <c r="H156" s="9">
+        <v>14508</v>
       </c>
       <c r="I156" s="9">
-        <v>14508</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18091</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>27</v>
       </c>
@@ -3631,23 +3631,23 @@
         <v>44</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11" t="s">
-        <v>26</v>
+      <c r="E157" s="11">
+        <v>2878</v>
       </c>
       <c r="F157" s="11">
-        <v>2878</v>
+        <v>4742</v>
       </c>
       <c r="G157" s="11">
-        <v>4742</v>
+        <v>12702</v>
       </c>
       <c r="H157" s="11">
-        <v>12702</v>
+        <v>24690</v>
       </c>
       <c r="I157" s="11">
-        <v>24690</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27229</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>28</v>
       </c>
@@ -3655,23 +3655,23 @@
         <v>44</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
-        <v>26</v>
+      <c r="E158" s="9">
+        <v>4324</v>
       </c>
       <c r="F158" s="9">
-        <v>4324</v>
+        <v>5646</v>
       </c>
       <c r="G158" s="9">
-        <v>5646</v>
-      </c>
-      <c r="H158" s="9">
         <v>9456</v>
       </c>
+      <c r="H158" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I158" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>29</v>
       </c>
@@ -3679,49 +3679,49 @@
         <v>45</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11" t="s">
-        <v>26</v>
+      <c r="E159" s="11">
+        <v>45643147</v>
       </c>
       <c r="F159" s="11">
-        <v>45643147</v>
+        <v>68500</v>
       </c>
       <c r="G159" s="11">
-        <v>68500</v>
-      </c>
-      <c r="H159" s="11">
         <v>113781520</v>
       </c>
+      <c r="H159" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I159" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D160" s="9"/>
-      <c r="E160" s="9" t="s">
-        <v>26</v>
+      <c r="E160" s="9">
+        <v>128123171</v>
       </c>
       <c r="F160" s="9">
-        <v>128123171</v>
+        <v>232202</v>
       </c>
       <c r="G160" s="9">
-        <v>232202</v>
+        <v>506753560</v>
       </c>
       <c r="H160" s="9">
-        <v>506753560</v>
+        <v>772893</v>
       </c>
       <c r="I160" s="9">
-        <v>772893</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1092490</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>46</v>
@@ -3736,14 +3736,14 @@
       <c r="G161" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H161" s="11" t="s">
-        <v>26</v>
+      <c r="H161" s="11">
+        <v>176510</v>
       </c>
       <c r="I161" s="11">
-        <v>176510</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>197388</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>34</v>
       </c>
@@ -3751,15 +3751,15 @@
         <v>45</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
-        <v>26</v>
+      <c r="E162" s="9">
+        <v>33147456</v>
       </c>
       <c r="F162" s="9">
-        <v>33147456</v>
-      </c>
-      <c r="G162" s="9">
         <v>330000000</v>
       </c>
+      <c r="G162" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="H162" s="9" t="s">
         <v>26</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3777,7 +3777,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3787,7 +3787,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3797,7 +3797,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B166" s="7" t="s">
         <v>49</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3829,7 +3829,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>24</v>
       </c>
@@ -3846,14 +3846,14 @@
       <c r="G168" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H168" s="9" t="s">
-        <v>26</v>
+      <c r="H168" s="9">
+        <v>7555</v>
       </c>
       <c r="I168" s="9">
-        <v>7555</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10588</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>27</v>
       </c>
@@ -3861,23 +3861,23 @@
         <v>25</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>26</v>
+      <c r="E169" s="11">
+        <v>3329</v>
       </c>
       <c r="F169" s="11">
-        <v>3329</v>
+        <v>5869</v>
       </c>
       <c r="G169" s="11">
-        <v>5869</v>
+        <v>23869</v>
       </c>
       <c r="H169" s="11">
-        <v>23869</v>
+        <v>23072</v>
       </c>
       <c r="I169" s="11">
-        <v>23072</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24932</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>28</v>
       </c>
@@ -3885,23 +3885,23 @@
         <v>25</v>
       </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>26</v>
+      <c r="E170" s="9">
+        <v>2415</v>
       </c>
       <c r="F170" s="9">
-        <v>2415</v>
+        <v>3535</v>
       </c>
       <c r="G170" s="9">
-        <v>3535</v>
-      </c>
-      <c r="H170" s="9">
         <v>5627</v>
       </c>
+      <c r="H170" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I170" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="10" t="s">
         <v>29</v>
       </c>
@@ -3909,52 +3909,52 @@
         <v>30</v>
       </c>
       <c r="D171" s="11"/>
-      <c r="E171" s="11" t="s">
-        <v>26</v>
+      <c r="E171" s="11">
+        <v>61455455</v>
       </c>
       <c r="F171" s="11">
-        <v>61455455</v>
+        <v>65930</v>
       </c>
       <c r="G171" s="11">
-        <v>65930</v>
-      </c>
-      <c r="H171" s="11">
         <v>171571128</v>
       </c>
+      <c r="H171" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="I171" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D172" s="9"/>
-      <c r="E172" s="9" t="s">
-        <v>26</v>
+      <c r="E172" s="9">
+        <v>186222093</v>
       </c>
       <c r="F172" s="9">
-        <v>186222093</v>
+        <v>323524</v>
       </c>
       <c r="G172" s="9">
-        <v>323524</v>
+        <v>555407947</v>
       </c>
       <c r="H172" s="9">
-        <v>555407947</v>
+        <v>1068854</v>
       </c>
       <c r="I172" s="9">
-        <v>1068854</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1406782</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11" t="s">
@@ -3966,14 +3966,14 @@
       <c r="G173" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H173" s="11" t="s">
-        <v>26</v>
+      <c r="H173" s="11">
+        <v>213425</v>
       </c>
       <c r="I173" s="11">
-        <v>213425</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176433</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3993,7 +3993,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4003,7 +4003,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B177" s="7" t="s">
         <v>50</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4035,7 +4035,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>51</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>52</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>53</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>54</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>55</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>56</v>
       </c>
@@ -4167,51 +4167,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9">
-        <v>35193</v>
+        <v>49343</v>
       </c>
       <c r="F185" s="9">
-        <v>49343</v>
+        <v>79680</v>
       </c>
       <c r="G185" s="9">
-        <v>79680</v>
+        <v>107267</v>
       </c>
       <c r="H185" s="9">
-        <v>107267</v>
+        <v>190119</v>
       </c>
       <c r="I185" s="9">
-        <v>190119</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+        <v>286678</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
-        <v>73417</v>
+        <v>105633</v>
       </c>
       <c r="F186" s="11">
-        <v>105633</v>
+        <v>163178</v>
       </c>
       <c r="G186" s="11">
-        <v>163178</v>
+        <v>275229</v>
       </c>
       <c r="H186" s="11">
-        <v>275229</v>
+        <v>511114</v>
       </c>
       <c r="I186" s="11">
-        <v>511114</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>762757</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>59</v>
       </c>
@@ -4233,48 +4233,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
-        <v>43149</v>
+        <v>73834</v>
       </c>
       <c r="F188" s="11">
-        <v>73834</v>
+        <v>206533</v>
       </c>
       <c r="G188" s="11">
-        <v>206533</v>
+        <v>345954</v>
       </c>
       <c r="H188" s="11">
-        <v>345954</v>
+        <v>749568</v>
       </c>
       <c r="I188" s="11">
-        <v>749568</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>842078</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15">
-        <v>151759</v>
+        <v>228810</v>
       </c>
       <c r="F189" s="15">
-        <v>228810</v>
+        <v>449391</v>
       </c>
       <c r="G189" s="15">
-        <v>449391</v>
+        <v>728450</v>
       </c>
       <c r="H189" s="15">
-        <v>728450</v>
+        <v>1450801</v>
       </c>
       <c r="I189" s="15">
-        <v>1450801</v>
+        <v>1891513</v>
       </c>
     </row>
   </sheetData>
